--- a/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Familia_Terminos Por Rol_2018-Febrero.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Familia_Terminos Por Rol_2018-Febrero.xlsx
@@ -200,7 +200,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="35.1" customWidth="1"/>
+    <col min="1" max="1" width="17.55" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -227,21 +227,21 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Abandono Del Procedimiento</t>
+          <t xml:space="preserve">Conciliación</t>
         </is>
       </c>
       <c r="B3" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Conciliación</t>
+          <t xml:space="preserve">Desistimiento</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -261,37 +261,17 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">No Da Curso A La Demanda</t>
+          <t xml:space="preserve">Sentencia</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="inlineStr" r="A8">
-        <is>
-          <t xml:space="preserve">No Da Curso A La Solicitud</t>
-        </is>
-      </c>
-      <c r="B8" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="inlineStr" r="A9">
-        <is>
-          <t xml:space="preserve">Sentencia</t>
-        </is>
-      </c>
-      <c r="B9" s="65">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
